--- a/va_facility_data_2025-02-20/Lancaster County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lancaster%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lancaster County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lancaster%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re5f5859c929741789b8af3fbb33ba8f6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R31727d45ab5f44b1821e636f7cacdadd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7bcaa2e0fa1f4aaf8c734111f6dd3e5a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0e5a92b1c4b64e0b8c4488a007761768"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re142061c8e0743b097b919eb1d2ddf84"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8cd4abd0f63c4546adfe0d725c294e57"/>
   </x:sheets>
 </x:workbook>
 </file>
